--- a/Fichas tecnicas/Ficha técnica Hardware y Software_PROYECTO.xlsx
+++ b/Fichas tecnicas/Ficha técnica Hardware y Software_PROYECTO.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/fabian_dsanchez_soy_sena_edu_co/Documents/Documentos/Analisis y Desarrollo de Software/ProyectoBrisasGems/Fichas tecnicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_081EB2C5BDABB190B19F06C4322C37A5A90E3A53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D526C7B-ACF2-42F3-9EFF-8DB17101605C}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_081EB2C5BDABB190B19F06C4322C37A5A90E3A53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6433D8E1-7B4B-4A54-ADE1-7B088C862871}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4650" yWindow="5280" windowWidth="8190" windowHeight="5295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Presupuesto" sheetId="2" r:id="rId1"/>
+    <sheet name="Ficha tecnica" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>ADSO - Diseño de las fichas técnicas de referentes de la 
 información - Especificaciones de software y hardware</t>
@@ -94,9 +94,6 @@
     <t>Software:</t>
   </si>
   <si>
-    <t>Otros: </t>
-  </si>
-  <si>
     <t>Requisitos del sistema (cliente)</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
   </si>
   <si>
     <t>Validó</t>
-  </si>
-  <si>
-    <t>Firma: Dimas Arley Lopez</t>
-  </si>
-  <si>
-    <t>cotizaciones  hardware y software</t>
   </si>
   <si>
     <t>Sistema de Personalización y Visualización de Joyas</t>
@@ -196,9 +187,6 @@
     <t>No aplica (se utiliza hosting contratado en lugar de un servidor físico).</t>
   </si>
   <si>
-    <t>Hosting web: Incluye soporte para bases de datos (MySQL, MongoDB), servidores web compatibles con Java, JavaScript y tecnologías HP.</t>
-  </si>
-  <si>
     <t>Dominio registrado.</t>
   </si>
   <si>
@@ -219,15 +207,159 @@
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
+  <si>
+    <t>Total Acumulado:</t>
+  </si>
+  <si>
+    <t>Presupuesto de Software Proyecto Brisas Gems</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Directos</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tipo de recurso</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Tipo de unidad</t>
+  </si>
+  <si>
+    <t>Valor unitario</t>
+  </si>
+  <si>
+    <t>Valor total</t>
+  </si>
+  <si>
+    <t>MATERIALES</t>
+  </si>
+  <si>
+    <t>Materias primas</t>
+  </si>
+  <si>
+    <t>Materiales</t>
+  </si>
+  <si>
+    <t>Tecnológico</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Computadora</t>
+  </si>
+  <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>Licencia de paga</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Mano de obra directa</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>Humanos</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Horas / Jornadas</t>
+  </si>
+  <si>
+    <t>70.000</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Directivo</t>
+  </si>
+  <si>
+    <t>Consultorías</t>
+  </si>
+  <si>
+    <t>Indirectos</t>
+  </si>
+  <si>
+    <t>Costos indirectos de fabricación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio de </t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Servicio mes</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>100 sitios web
+WordPress administrado
+~25 000 visitas al mes
+100 GB de almacenamiento SSD
+400 000 archivos y directorios (inodos)Detalles técnicos
+40 PHP workers
+100 subdominios
+50 conexiones de MySQL MAX
+300 bases de datos
+Cuentas FTP ilimitadas
+Cronjobs ilimitados
+Acceso GIT
+Múltiples versiones de PHP
+Gestión de DNS
+Administrador de caché
+Potente Panel de control
+Acceso SSH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +425,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,44 +467,8 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -412,11 +524,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -462,16 +658,55 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -479,16 +714,78 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="mediumDashDot">
+          <color theme="0"/>
+        </left>
+        <right style="mediumDashDot">
+          <color theme="0"/>
+        </right>
+        <top style="mediumDashDot">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="mediumDashDot">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="mediumDashDot">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="mediumDashDot">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF8745EC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8F3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="1">
+        <top style="slantDashDot">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="slantDashDot">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+        <diagonal style="slantDashDot">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </diagonal>
+        <vertical/>
+        <horizontal style="slantDashDot">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{E679AF04-B41D-479A-82E0-98B16A030999}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="totalRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -701,11 +998,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="F4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="31">
+        <v>5168800</v>
+      </c>
+      <c r="M9" s="31">
+        <v>5168800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="32">
+        <v>650000</v>
+      </c>
+      <c r="M10" s="31">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="33">
+        <v>100000</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="C23" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="40"/>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="32">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="40"/>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="40"/>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="32">
+        <f>SUM(M8:M23)</f>
+        <v>5818800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C7:C22"/>
+    <mergeCell ref="D7:D17"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -720,10 +1393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -754,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2"/>
@@ -782,10 +1455,10 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -816,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
@@ -848,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
@@ -880,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
@@ -944,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
@@ -972,10 +1645,10 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1001,12 +1674,12 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="2"/>
@@ -1038,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="2"/>
@@ -1066,10 +1739,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1100,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
@@ -1128,10 +1801,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1158,10 +1831,10 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1192,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="2"/>
@@ -1219,15 +1892,15 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="270" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C17" s="11">
-        <v>650000</v>
+        <v>714000</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1258,7 +1931,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" s="11">
         <v>0</v>
@@ -1291,7 +1964,9 @@
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1319,14 +1994,12 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="13">
         <f>SUM(C16:C19)</f>
-        <v>650000</v>
+        <v>714000</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1353,10 +2026,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>19</v>
+      <c r="A21" s="46" t="s">
+        <v>18</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1387,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="11">
         <v>4000000</v>
@@ -1418,13 +2091,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
-      <c r="C23" s="32">
-        <v>689000</v>
+      <c r="C23" s="21">
+        <v>648000</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1452,13 +2125,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="8">
-        <v>239900</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1486,13 +2159,13 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="C25" s="11">
-        <v>239900</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1519,16 +2192,16 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>56</v>
+      <c r="A26" s="22" t="s">
+        <v>52</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="13">
         <f>SUM(C22:C25)</f>
-        <v>5168800</v>
+        <v>4648000</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1552,17 +2225,16 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>23</v>
+      <c r="A27" s="24" t="s">
+        <v>53</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17" t="s">
-        <v>26</v>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23">
+        <f>SUM(C20+C26)</f>
+        <v>5362000</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1586,18 +2258,16 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>24</v>
+      <c r="A28" s="42" t="s">
+        <v>22</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="19">
-        <v>45627</v>
-      </c>
-      <c r="E28" s="19">
-        <v>45627</v>
+      <c r="E28" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1622,13 +2292,13 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>1</v>
+      <c r="A29" s="15" t="s">
+        <v>23</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>28</v>
+      <c r="B29" s="15" t="s">
+        <v>24</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="19">
         <v>45627</v>
       </c>
@@ -1659,14 +2329,18 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="19">
+        <v>45627</v>
+      </c>
+      <c r="E30" s="19">
+        <v>45627</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1690,14 +2364,14 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>30</v>
+      <c r="A31" s="7">
+        <v>2</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17" t="s">
-        <v>33</v>
+      <c r="B31" s="7" t="s">
+        <v>28</v>
       </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1722,15 +2396,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>31</v>
+      <c r="A32" s="42" t="s">
+        <v>29</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1756,13 +2428,15 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>43</v>
+      <c r="A33" s="15" t="s">
+        <v>30</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
-        <v>52</v>
+      <c r="B33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1788,15 +2462,13 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>44</v>
+      <c r="A34" s="7" t="s">
+        <v>40</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1823,13 +2495,15 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1854,9 +2528,13 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -28873,15 +29551,43 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
-    <row r="1001" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="8"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A9:B9"/>
@@ -28893,116 +29599,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>